--- a/Report/URLs not fetched.xlsx
+++ b/Report/URLs not fetched.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramod.setlur/Google Drive/USC Subjects/Information Retrieval/assignments/assignment 1/Report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramod.setlur/Google Drive/USC Subjects/Information Retrieval/assignments/assignment 1/nutch-crawling/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <t>URLS</t>
   </si>
   <si>
-    <t>List of URLs that we weren't able to fetch</t>
-  </si>
-  <si>
     <t>REASON</t>
   </si>
   <si>
@@ -393,6 +390,9 @@
   </si>
   <si>
     <t>http://www.leelaecospa.ca/assets/light/spa-business award4-b46557dc07a2d5068eab28c4eb0a7bda.png</t>
+  </si>
+  <si>
+    <t>List of URLs that we weren't able to crawl</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
   <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -871,7 +871,7 @@
     </row>
     <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -895,820 +895,820 @@
         <v>0</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
